--- a/static/graphs/data.xlsx
+++ b/static/graphs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>20230305</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1793999969959259</v>
+        <v>0.1806000024080276</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>20230310</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1552000045776367</v>
+        <v>0.1555999964475632</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>20230315</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1536000072956085</v>
+        <v>0.1108999997377396</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>20230320</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1299999952316284</v>
+        <v>0.1317999958992004</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>20230325</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1262000054121017</v>
+        <v>0.129600003361702</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>20230330</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1291999965906143</v>
+        <v>0.1335999965667725</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>20230404</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1401000022888184</v>
+        <v>0.1392000019550323</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>20230409</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1306000053882599</v>
+        <v>0.1324000060558319</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>20230414</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1293999999761581</v>
+        <v>0.1379999965429306</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         <v>20230424</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1330000013113022</v>
+        <v>0.1432999968528748</v>
       </c>
     </row>
     <row r="13">
@@ -538,127 +538,223 @@
         <v>20230429</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8104000091552734</v>
+        <v>0.2795999944210052</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1806000024080276</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1542000025510788</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1395000070333481</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1298000067472458</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1187999993562698</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1211000010371208</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1325999945402145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1418000012636185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1283999979496002</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1428000032901764</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1319999992847443</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5432000160217285</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>20230305</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.1791000068187714</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B26" t="n">
+        <v>0.1785999983549118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>20230310</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B27" t="n">
         <v>0.1573999971151352</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>20230315</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.1162000000476837</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B28" t="n">
+        <v>0.2736000120639801</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>20230320</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.1312000006437302</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="B29" t="n">
+        <v>0.128600001335144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>20230325</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.1288000047206879</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B30" t="n">
+        <v>0.1307000070810318</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>20230330</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.1278000026941299</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B31" t="n">
+        <v>0.1431999951601028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>20230404</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.1351999938488007</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="B32" t="n">
+        <v>0.1438000053167343</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>20230409</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.1319999992847443</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B33" t="n">
+        <v>0.1405999958515167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>20230414</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.1278000026941299</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B34" t="n">
+        <v>0.1273999959230423</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>20230419</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.1472000032663345</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="B35" t="n">
+        <v>0.1483999937772751</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>20230424</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.1413999944925308</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="B36" t="n">
+        <v>0.152099996805191</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>20230429</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.1756000071763992</v>
+      <c r="B37" t="n">
+        <v>0.2010000050067902</v>
       </c>
     </row>
   </sheetData>

--- a/static/graphs/data.xlsx
+++ b/static/graphs/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,123 +638,1549 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1785999983549118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1573999971151352</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2736000120639801</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.128600001335144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1307000070810318</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1431999951601028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1438000053167343</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1405999958515167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1273999959230423</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1483999937772751</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.152099996805191</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2010000050067902</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1583999991416931</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1412999927997589</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1265999972820282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1225000023841858</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1224000006914139</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.136000007390976</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1480000019073486</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1272999942302704</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1479000002145767</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1465000063180923</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.311599999666214</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1184000000357628</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1582999974489212</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1694000065326691</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1224000006914139</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1238999962806702</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1228000000119209</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1383000016212463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1293999999761581</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.119999997317791</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1403000056743622</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1319999992847443</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6759999990463257</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1186000034213066</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1560000032186508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1439999938011169</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.123199999332428</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1206000000238419</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.119999997317791</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1360999941825867</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1368000060319901</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1208000034093857</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1451999992132187</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1381999999284744</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8140000104904175</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1128000020980835</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1588000059127808</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1403000056743622</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1280000060796738</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1270000040531158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1278000026941299</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1395999938249588</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1420000046491623</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1203000023961067</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1459999978542328</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1354999989271164</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7343999743461609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1242000013589859</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1565999984741211</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1378999948501587</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1254000067710876</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1177999973297119</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1218999996781349</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1299999952316284</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1307999938726425</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.127700001001358</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1403000056743622</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.131400004029274</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.930400013923645</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1116999983787537</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1573999971151352</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1968999952077866</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1263000071048737</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.1237000003457069</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1262000054121017</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1393000036478043</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1352999955415726</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.1437000036239624</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.1308999955654144</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6028000116348267</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.122299998998642</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1578000038862228</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1453000009059906</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1291999965906143</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.119099996984005</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1253000050783157</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1331000030040741</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1377999931573868</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.1263000071048737</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1421999931335449</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1438000053167343</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4864000082015991</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1150999963283539</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1770000010728836</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.155799999833107</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1519999951124191</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.122699998319149</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.123199999332428</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1207000017166138</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1356000006198883</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1293999999761581</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1191999986767769</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1387999951839447</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1295000016689301</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5996000170707703</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1185000017285347</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.809999942779541</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.580000072717667</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.318999975919724</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.229000017046928</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.216000020503998</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.224000006914139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.369999945163727</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.348000019788742</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.239999979734421</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.420000046491623</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.31400004029274</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.087999939918518</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.195999979972839</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.818999946117401</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.620000004768372</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.085999995470047</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.33200004696846</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.324999928474426</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.278000026941299</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.465000063180923</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.448000073432922</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.396999955177307</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.527999937534332</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.788000017404556</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7.684000134468079</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.281999945640564</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.788000017404556</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.607999950647354</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.785999983549118</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.292999982833862</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.30500003695488</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.243999972939491</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.477999985218048</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.361999958753586</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.334999948740005</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.491000056266785</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.592999994754791</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.996000170707703</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.234000027179718</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.767999976873398</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.617999970912933</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.972000002861023</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.278000026941299</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.298000067472458</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.269000023603439</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.495999991893768</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.416999995708466</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.330000013113022</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.513999998569489</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.773999929428101</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.392000138759613</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.805000007152557</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.596000045537949</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2.202000021934509</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.272000074386597</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.290999948978424</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.265999972820282</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.492999941110611</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.410000026226044</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.356000006198883</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.580000072717667</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.656000018119812</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.526000082492828</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>20230203</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1.271000057458878</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>20230208</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1.316999942064285</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>20230213</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1.324999928474426</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>20230218</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1.309999972581863</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>20230223</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1.313000023365021</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>20230228</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1.574999988079071</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>20230305</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.1785999983549118</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="B204" t="n">
+        <v>1.771000027656555</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>20230310</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.1573999971151352</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="B205" t="n">
+        <v>1.615999937057495</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>20230315</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.2736000120639801</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="B206" t="n">
+        <v>3.242000043392181</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>20230320</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.128600001335144</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="B207" t="n">
+        <v>1.307000070810318</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>20230325</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.1307000070810318</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="B208" t="n">
+        <v>1.301999986171722</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>20230330</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.1431999951601028</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="B209" t="n">
+        <v>1.342000067234039</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>20230404</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.1438000053167343</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="B210" t="n">
+        <v>1.456999927759171</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>20230409</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.1405999958515167</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="B211" t="n">
+        <v>1.335999965667725</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>20230414</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.1273999959230423</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="B212" t="n">
+        <v>1.270000040531158</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>20230419</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.1483999937772751</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="B213" t="n">
+        <v>1.488000005483627</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>20230424</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.152099996805191</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>20230429</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.2010000050067902</v>
+      <c r="B214" t="n">
+        <v>1.666000038385391</v>
       </c>
     </row>
   </sheetData>

--- a/static/graphs/data.xlsx
+++ b/static/graphs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2014,173 +2014,629 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>20230203</t>
-        </is>
+      <c r="A198" t="n">
+        <v>20230203</v>
       </c>
       <c r="B198" t="n">
         <v>1.271000057458878</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>20230208</t>
-        </is>
+      <c r="A199" t="n">
+        <v>20230208</v>
       </c>
       <c r="B199" t="n">
         <v>1.316999942064285</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>20230213</t>
-        </is>
+      <c r="A200" t="n">
+        <v>20230213</v>
       </c>
       <c r="B200" t="n">
         <v>1.324999928474426</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>20230218</t>
-        </is>
+      <c r="A201" t="n">
+        <v>20230218</v>
       </c>
       <c r="B201" t="n">
         <v>1.309999972581863</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>20230223</t>
-        </is>
+      <c r="A202" t="n">
+        <v>20230223</v>
       </c>
       <c r="B202" t="n">
         <v>1.313000023365021</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>20230228</t>
-        </is>
+      <c r="A203" t="n">
+        <v>20230228</v>
       </c>
       <c r="B203" t="n">
         <v>1.574999988079071</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.771000027656555</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.615999937057495</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.242000043392181</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.307000070810318</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.301999986171722</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.342000067234039</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.456999927759171</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.335999965667725</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.270000040531158</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.488000005483627</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.666000038385391</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.780000030994415</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.573999971151352</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.544999927282333</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.334999948740005</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.272000074386597</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.389999985694885</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.402000039815903</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.372999995946884</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.272999942302704</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.500999927520752</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.405999958515167</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.928000003099442</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.22299998998642</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.790000051259995</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.60300001502037</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.198000013828278</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.319999992847443</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.269000023603439</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.331000030040741</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.397999972105026</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.442999988794327</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.308999955654144</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.474000066518784</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.430000066757202</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.668000072240829</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.234999969601631</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.816000044345856</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.553999930620193</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.407999992370605</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.337999999523163</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.180000007152557</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.221000030636787</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.292999982833862</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.381999999284744</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.289999932050705</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.381999999284744</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.29600003361702</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B252" t="n">
+        <v>6.155999898910522</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.142999976873398</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>20220608</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8.059999942779541</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>20220613</v>
+      </c>
+      <c r="B255" t="n">
+        <v>8.672000169754028</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>20220618</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.951999962329865</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>20220703</v>
+      </c>
+      <c r="B257" t="n">
+        <v>8.880000114440918</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>20220901</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.578000038862228</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>20220906</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.159000024199486</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>20230305</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>1.771000027656555</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="B260" t="n">
+        <v>1.781000047922134</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t>20230310</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>1.615999937057495</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="B261" t="n">
+        <v>1.596000045537949</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t>20230315</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>3.242000043392181</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="B262" t="n">
+        <v>1.757999956607819</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t>20230320</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>1.307000070810318</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="B263" t="n">
+        <v>1.31400004029274</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
         <is>
           <t>20230325</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>1.301999986171722</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="B264" t="n">
+        <v>1.274999976158142</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
         <is>
           <t>20230330</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>1.342000067234039</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="B265" t="n">
+        <v>1.425999999046326</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
         <is>
           <t>20230404</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>1.456999927759171</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="B266" t="n">
+        <v>1.421000063419342</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t>20230409</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>1.335999965667725</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="B267" t="n">
+        <v>1.333999931812286</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t>20230414</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>1.270000040531158</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="B268" t="n">
+        <v>1.27700001001358</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
         <is>
           <t>20230419</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>1.488000005483627</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="B269" t="n">
+        <v>1.480000019073486</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
         <is>
           <t>20230424</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>1.666000038385391</v>
+      <c r="B270" t="n">
+        <v>1.440999954938889</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20230429</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1.867000013589859</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20230504</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1.24600000679493</v>
       </c>
     </row>
   </sheetData>

--- a/static/graphs/data.xlsx
+++ b/static/graphs/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,133 +2510,2395 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>20230305</t>
-        </is>
+      <c r="A260" t="n">
+        <v>20230305</v>
       </c>
       <c r="B260" t="n">
         <v>1.781000047922134</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>20230310</t>
-        </is>
+      <c r="A261" t="n">
+        <v>20230310</v>
       </c>
       <c r="B261" t="n">
         <v>1.596000045537949</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>20230315</t>
-        </is>
+      <c r="A262" t="n">
+        <v>20230315</v>
       </c>
       <c r="B262" t="n">
         <v>1.757999956607819</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>20230320</t>
-        </is>
+      <c r="A263" t="n">
+        <v>20230320</v>
       </c>
       <c r="B263" t="n">
         <v>1.31400004029274</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>20230325</t>
-        </is>
+      <c r="A264" t="n">
+        <v>20230325</v>
       </c>
       <c r="B264" t="n">
         <v>1.274999976158142</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>20230330</t>
-        </is>
+      <c r="A265" t="n">
+        <v>20230330</v>
       </c>
       <c r="B265" t="n">
         <v>1.425999999046326</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.421000063419342</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.333999931812286</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.27700001001358</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.480000019073486</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.440999954938889</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.867000013589859</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.24600000679493</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.799000054597855</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1.597000062465668</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1.304000020027161</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.309999972581863</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.274999976158142</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.304000020027161</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1.407999992370605</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1.321000009775162</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1.275999993085861</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1.503999978303909</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1.439999938011169</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1.33200004696846</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1.814000010490417</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1.553000062704086</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1.387999951839447</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.252000033855438</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1.182999983429909</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.215000003576279</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1.299999952316284</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1.439000070095062</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.406999975442886</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1.315000057220459</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B296" t="n">
+        <v>10.16800045967102</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1.83799996972084</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1.553999930620193</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.366000026464462</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1.291999965906143</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1.189000010490417</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1.221999973058701</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1.326999962329865</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1.431999951601028</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1.23199999332428</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1.451999992132187</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1.414999961853027</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B308" t="n">
+        <v>7.283999919891357</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1.78399994969368</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1.573999971151352</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1.342000067234039</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1.221999973058701</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1.216999962925911</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1.21399998664856</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1.384000033140182</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1.456000059843063</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>20230414</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1.24600000679493</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.435000002384186</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1.438000053167343</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>20230429</v>
+      </c>
+      <c r="B320" t="n">
+        <v>8.240000009536743</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1.165999993681908</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1.565999984741211</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1.228000000119209</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1.243999972939491</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1.239999979734421</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1.375000029802322</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1.316000074148178</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1.412999927997589</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1.278000026941299</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1.19999997317791</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1.888000071048737</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1.642999947071075</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1.220000013709068</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1.289999932050705</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1.216999962925911</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1.230999976396561</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1.333999931812286</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1.369999945163727</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1.401000022888184</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1.218999996781349</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1.794999986886978</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1.562000066041946</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1.212000027298927</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1.215000003576279</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1.21799997985363</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1.381999999284744</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1.424999982118607</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1.435000002384186</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1.427000015974045</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1.162000000476837</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1.81999996304512</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1.666000038385391</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.345999985933304</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1.377000063657761</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1.307999938726425</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1.422999948263168</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1.49399995803833</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1.629000008106232</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1.565999984741211</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1.263999938964844</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1.858000010251999</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1.692000031471252</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1.402000039815903</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1.397999972105026</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1.430999934673309</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1.469999998807907</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1.501999944448471</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1.665000021457672</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1.669999957084656</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1.327999979257584</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1.809999942779541</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1.565999984741211</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1.26800000667572</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1.185000017285347</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1.257999986410141</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1.322000026702881</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1.371999979019165</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1.458999961614609</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1.403000056743622</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1.145000010728836</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1.826000064611435</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1.580000072717667</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1.254000067710876</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1.211000010371208</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.26800000667572</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1.386000066995621</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1.423999965190887</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1.518000066280365</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1.476999968290329</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1.19999997317791</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1.793999969959259</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1.588000059127808</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1.28700003027916</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1.260000020265579</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1.270000040531158</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1.363999992609024</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1.472000032663345</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1.462000012397766</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1.404000073671341</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1.17299996316433</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1.580000072717667</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1.252000033855438</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1.207000017166138</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1.248999983072281</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1.351999938488007</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1.448000073432922</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1.464000046253204</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1.45799994468689</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1.187999993562698</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1.544000059366226</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1.21799997985363</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1.24600000679493</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1.275999993085861</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B414" t="n">
+        <v>1.374000012874603</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B415" t="n">
+        <v>1.301999986171722</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1.400000005960464</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1.275999993085861</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B418" t="n">
+        <v>1.19499996304512</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B419" t="n">
+        <v>1.605000048875809</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B420" t="n">
+        <v>1.308999955654144</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B421" t="n">
+        <v>1.28700003027916</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B422" t="n">
+        <v>1.317999958992004</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B423" t="n">
+        <v>1.446000039577484</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B424" t="n">
+        <v>1.356000006198883</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1.582999974489212</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>1.471000015735626</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1.269000023603439</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B428" t="n">
+        <v>1.578000038862228</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B429" t="n">
+        <v>1.291999965906143</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B430" t="n">
+        <v>1.19099996984005</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1.253000050783157</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1.331000030040741</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1.377999931573868</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1.421999931335449</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B435" t="n">
+        <v>1.438000053167343</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1.150999963283539</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B437" t="n">
+        <v>17.85</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B438" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B439" t="n">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B440" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B441" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B442" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B443" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B444" t="n">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B445" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B446" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B447" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B448" t="n">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B449" t="n">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B450" t="n">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B451" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B452" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B453" t="n">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B454" t="n">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B455" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B456" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B457" t="n">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B458" t="n">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B459" t="n">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B460" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B461" t="n">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B462" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B463" t="n">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B464" t="n">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B465" t="n">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B466" t="n">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B467" t="n">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B468" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B469" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B470" t="n">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B471" t="n">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B472" t="n">
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B473" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B474" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B475" t="n">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B476" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B477" t="n">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B478" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B479" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B480" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B481" t="n">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B482" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B483" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B484" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B485" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>20230305</v>
+      </c>
+      <c r="B486" t="n">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="B487" t="n">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>20230320</v>
+      </c>
+      <c r="B488" t="n">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>20230325</v>
+      </c>
+      <c r="B489" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="B490" t="n">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B491" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B492" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B493" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B494" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B495" t="n">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B496" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B497" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B498" t="n">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B499" t="n">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B500" t="n">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B501" t="n">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B502" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B503" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B504" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B505" t="n">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B506" t="n">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B507" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B508" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B509" t="n">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>20230603</v>
+      </c>
+      <c r="B510" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B511" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B512" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B513" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B514" t="n">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B515" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B516" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>20230603</v>
+      </c>
+      <c r="B517" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B518" t="n">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B519" t="n">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B520" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B521" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B522" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B523" t="n">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B524" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>20230603</v>
+      </c>
+      <c r="B525" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B526" t="n">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B527" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B528" t="n">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B529" t="n">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B530" t="n">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B531" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B532" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>20230603</v>
+      </c>
+      <c r="B533" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B534" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B535" t="n">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B536" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B537" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B538" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B539" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>20230603</v>
+      </c>
+      <c r="B540" t="n">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="B541" t="n">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>20230409</v>
+      </c>
+      <c r="B542" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>20230419</v>
+      </c>
+      <c r="B543" t="n">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>20230424</v>
+      </c>
+      <c r="B544" t="n">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>20230504</v>
+      </c>
+      <c r="B545" t="n">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>20230514</v>
+      </c>
+      <c r="B546" t="n">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>20230519</v>
+      </c>
+      <c r="B547" t="n">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>20230603</v>
+      </c>
+      <c r="B548" t="n">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
         <is>
           <t>20230404</t>
         </is>
       </c>
-      <c r="B266" t="n">
-        <v>1.421000063419342</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="B549" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
         <is>
           <t>20230409</t>
         </is>
       </c>
-      <c r="B267" t="n">
-        <v>1.333999931812286</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>20230414</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>1.27700001001358</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="B550" t="n">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
         <is>
           <t>20230419</t>
         </is>
       </c>
-      <c r="B269" t="n">
-        <v>1.480000019073486</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="B551" t="n">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
         <is>
           <t>20230424</t>
         </is>
       </c>
-      <c r="B270" t="n">
-        <v>1.440999954938889</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>20230429</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>1.867000013589859</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="B552" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
         <is>
           <t>20230504</t>
         </is>
       </c>
-      <c r="B272" t="n">
-        <v>1.24600000679493</v>
+      <c r="B553" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>20230514</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>20230519</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>20230603</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>12.64</v>
       </c>
     </row>
   </sheetData>
